--- a/data/stat probs/moses brown stat probs - condition.xlsx
+++ b/data/stat probs/moses brown stat probs - condition.xlsx
@@ -25,20 +25,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="56 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="56 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="56 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="56 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="56 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="56 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 full" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2033,16 +2033,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2779,16 +2779,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2811,22 +2811,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2875,16 +2875,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2907,16 +2907,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2939,16 +2939,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2971,16 +2971,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3067,16 +3067,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3099,16 +3099,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3131,16 +3131,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3163,16 +3163,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3233,10 +3233,10 @@
         <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -3389,22 +3389,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3999,16 +3999,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4031,22 +4031,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4063,16 +4063,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4095,16 +4095,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4127,16 +4127,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4159,16 +4159,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4223,16 +4223,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -4255,16 +4255,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -4287,16 +4287,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -4319,16 +4319,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -4351,16 +4351,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -4383,16 +4383,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -4415,16 +4415,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -4453,10 +4453,10 @@
         <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -4485,10 +4485,10 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -4517,10 +4517,10 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -4609,16 +4609,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5219,16 +5219,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5829,16 +5829,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6439,16 +6439,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6986,7 +6986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7049,16 +7049,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7183,10 +7183,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7198,390 +7198,6 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>100</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7596,7 +7212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7659,16 +7275,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7793,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7808,390 +7424,6 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>100</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8269,16 +7501,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8495,16 +7727,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8658,7 +7890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8721,22 +7953,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8753,22 +7985,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -8785,16 +8017,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -8817,16 +8049,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -8849,16 +8081,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -8870,6 +8102,198 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>76</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" t="n">
+        <v>76</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>76</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>82</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>82</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>94</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>94</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>94</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8947,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9361,6 +8785,424 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2" t="n">
+        <v>82</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>82</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53</v>
+      </c>
+      <c r="F5" t="n">
+        <v>47</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>53</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>76</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>76</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" t="n">
+        <v>76</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>76</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>82</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>82</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>94</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>94</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>94</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9429,16 +9271,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9461,10 +9303,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -9493,16 +9335,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -9525,16 +9367,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -9557,10 +9399,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -9578,424 +9420,6 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>88</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18</v>
-      </c>
-      <c r="H3" t="n">
-        <v>82</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>65</v>
-      </c>
-      <c r="F4" t="n">
-        <v>35</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35</v>
-      </c>
-      <c r="E5" t="n">
-        <v>53</v>
-      </c>
-      <c r="F5" t="n">
-        <v>47</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>53</v>
-      </c>
-      <c r="D6" t="n">
-        <v>47</v>
-      </c>
-      <c r="E6" t="n">
-        <v>24</v>
-      </c>
-      <c r="F6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>41</v>
-      </c>
-      <c r="D7" t="n">
-        <v>59</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24</v>
-      </c>
-      <c r="F7" t="n">
-        <v>76</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" t="n">
-        <v>65</v>
-      </c>
-      <c r="E8" t="n">
-        <v>24</v>
-      </c>
-      <c r="F8" t="n">
-        <v>76</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24</v>
-      </c>
-      <c r="D9" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" t="n">
-        <v>82</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>82</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12</v>
-      </c>
-      <c r="F10" t="n">
-        <v>88</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>94</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>94</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>94</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>94</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10010,7 +9434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10073,16 +9497,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10105,22 +9529,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -10137,16 +9561,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -10169,16 +9593,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -10201,16 +9625,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -10222,198 +9646,6 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>41</v>
-      </c>
-      <c r="D7" t="n">
-        <v>59</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24</v>
-      </c>
-      <c r="F7" t="n">
-        <v>76</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" t="n">
-        <v>65</v>
-      </c>
-      <c r="E8" t="n">
-        <v>24</v>
-      </c>
-      <c r="F8" t="n">
-        <v>76</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24</v>
-      </c>
-      <c r="D9" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" t="n">
-        <v>82</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>82</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12</v>
-      </c>
-      <c r="F10" t="n">
-        <v>88</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>94</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>94</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>94</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>94</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10491,16 +9723,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11005,16 +10237,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11519,22 +10751,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12065,22 +11297,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12611,22 +11843,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13093,22 +12325,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13575,22 +12807,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14089,22 +13321,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14571,22 +13803,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15085,16 +14317,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15279,16 +14511,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15473,16 +14705,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15763,16 +14995,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16053,22 +15285,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16599,22 +15831,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17145,16 +16377,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17691,16 +16923,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18237,22 +17469,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18719,16 +17951,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19329,22 +18561,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19811,16 +19043,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20293,16 +19525,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20775,16 +20007,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21001,16 +20233,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21227,16 +20459,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21421,16 +20653,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21615,16 +20847,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21969,16 +21201,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22323,16 +21555,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22741,16 +21973,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23351,16 +22583,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23769,22 +23001,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23995,22 +23227,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24221,22 +23453,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24511,22 +23743,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24801,16 +24033,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25283,16 +24515,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25765,16 +24997,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25959,16 +25191,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26153,16 +25385,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26347,16 +25579,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26765,16 +25997,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26959,16 +26191,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27249,16 +26481,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27545,10 +26777,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27739,10 +26971,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27933,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28063,10 +27295,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28187,22 +27419,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28605,22 +27837,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29023,16 +28255,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29441,16 +28673,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29859,16 +29091,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -30277,16 +29509,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -30567,16 +29799,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31059,10 +30291,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31189,10 +30421,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31319,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31449,10 +30681,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31573,16 +30805,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -32185,16 +31417,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -32895,16 +32127,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33089,16 +32321,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33283,10 +32515,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -33445,10 +32677,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
